--- a/table/question/question-jiankang.xlsx
+++ b/table/question/question-jiankang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="2376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3917" uniqueCount="2414">
   <si>
     <t>ID</t>
   </si>
@@ -7145,6 +7145,120 @@
   </si>
   <si>
     <t>水痘疫苗</t>
+  </si>
+  <si>
+    <t>选择下列哪种方式减肥比较健康？</t>
+  </si>
+  <si>
+    <t>不吃早餐</t>
+  </si>
+  <si>
+    <t>做有氧运动</t>
+  </si>
+  <si>
+    <t>只吃米饭</t>
+  </si>
+  <si>
+    <t>多睡觉</t>
+  </si>
+  <si>
+    <t>以下不属于呼吸道传染病的是：</t>
+  </si>
+  <si>
+    <t>水痘</t>
+  </si>
+  <si>
+    <t>下列哪项不属于青少年吸烟的危害？</t>
+  </si>
+  <si>
+    <t>有助学习</t>
+  </si>
+  <si>
+    <t>影响发育</t>
+  </si>
+  <si>
+    <t>记忆力衰退</t>
+  </si>
+  <si>
+    <t>加快衰老</t>
+  </si>
+  <si>
+    <t>人体获得和利用食物的综合过程称为：</t>
+  </si>
+  <si>
+    <t>吸收</t>
+  </si>
+  <si>
+    <t>消化</t>
+  </si>
+  <si>
+    <t>物质代谢</t>
+  </si>
+  <si>
+    <t>世界卫生组织提出的健康四大基石不包括下列哪项？</t>
+  </si>
+  <si>
+    <t>平衡饮食</t>
+  </si>
+  <si>
+    <t>戒烟限酒</t>
+  </si>
+  <si>
+    <t>饭量减少</t>
+  </si>
+  <si>
+    <t>发生核事故后，核电厂周围居民在听到警报后做法错误的是：</t>
+  </si>
+  <si>
+    <t>尽快进入室内</t>
+  </si>
+  <si>
+    <t>按量服用碘片</t>
+  </si>
+  <si>
+    <t>室内开窗通风</t>
+  </si>
+  <si>
+    <t>按要求撤离</t>
+  </si>
+  <si>
+    <t>地震后，长时间收到重物挤压的人有可能会出现：</t>
+  </si>
+  <si>
+    <t>挤压综合征</t>
+  </si>
+  <si>
+    <t>巨人观</t>
+  </si>
+  <si>
+    <t>创伤后应激障碍的简称是：</t>
+  </si>
+  <si>
+    <t>PUA</t>
+  </si>
+  <si>
+    <t>PTSD</t>
+  </si>
+  <si>
+    <t>PYTP</t>
+  </si>
+  <si>
+    <t>PTTY</t>
+  </si>
+  <si>
+    <t>CRF是哪一病症的简称？</t>
+  </si>
+  <si>
+    <t>开放性骨折</t>
+  </si>
+  <si>
+    <t>急性阑尾炎</t>
+  </si>
+  <si>
+    <t>慢性肾衰竭</t>
+  </si>
+  <si>
+    <t>高血脂</t>
   </si>
 </sst>
 </file>
@@ -8252,10 +8366,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O551"/>
+  <dimension ref="A1:O560"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A510" workbookViewId="0">
-      <selection activeCell="B551" sqref="B551"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="A556" sqref="A556:A560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
@@ -25924,6 +26038,294 @@
         <v>20</v>
       </c>
     </row>
+    <row r="552" customHeight="1" spans="1:10">
+      <c r="A552" s="1">
+        <v>549</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I552" s="1">
+        <v>80</v>
+      </c>
+      <c r="J552" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="553" customHeight="1" spans="1:10">
+      <c r="A553" s="1">
+        <v>550</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I553" s="1">
+        <v>10</v>
+      </c>
+      <c r="J553" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="554" customHeight="1" spans="1:10">
+      <c r="A554" s="1">
+        <v>551</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I554" s="1">
+        <v>90</v>
+      </c>
+      <c r="J554" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="555" customHeight="1" spans="1:10">
+      <c r="A555" s="1">
+        <v>552</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I555" s="1">
+        <v>30</v>
+      </c>
+      <c r="J555" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="556" customHeight="1" spans="1:10">
+      <c r="A556" s="1">
+        <v>553</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I556" s="1">
+        <v>90</v>
+      </c>
+      <c r="J556" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="557" customHeight="1" spans="1:10">
+      <c r="A557" s="1">
+        <v>554</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I557" s="1">
+        <v>70</v>
+      </c>
+      <c r="J557" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="558" customHeight="1" spans="1:10">
+      <c r="A558" s="1">
+        <v>555</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I558" s="1">
+        <v>60</v>
+      </c>
+      <c r="J558" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="559" customHeight="1" spans="1:10">
+      <c r="A559" s="1">
+        <v>556</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I559" s="1">
+        <v>80</v>
+      </c>
+      <c r="J559" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="560" customHeight="1" spans="1:10">
+      <c r="A560" s="1">
+        <v>557</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I560" s="1">
+        <v>5</v>
+      </c>
+      <c r="J560" s="1">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
